--- a/Evaluacion 2/results/DECA/est_lmk_DECA.xlsx
+++ b/Evaluacion 2/results/DECA/est_lmk_DECA.xlsx
@@ -1078,25 +1078,25 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C22">
-        <v>6.945236087104402</v>
+        <v>6.911295917190489</v>
       </c>
       <c r="D22">
-        <v>4.346096216486815</v>
+        <v>4.145507740228843</v>
       </c>
       <c r="E22">
         <v>2.293816362542208</v>
       </c>
       <c r="F22">
-        <v>3.778423699480049</v>
+        <v>3.824519598430504</v>
       </c>
       <c r="G22">
-        <v>5.669190691747955</v>
+        <v>6.103572369942697</v>
       </c>
       <c r="H22">
-        <v>7.459162653235126</v>
+        <v>7.364563152662695</v>
       </c>
       <c r="I22">
         <v>16.78761304301928</v>
@@ -1252,25 +1252,25 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C28">
-        <v>7.645771084314814</v>
+        <v>7.24866125064084</v>
       </c>
       <c r="D28">
-        <v>4.532106014985858</v>
+        <v>4.534872458372755</v>
       </c>
       <c r="E28">
         <v>1.460199127626008</v>
       </c>
       <c r="F28">
-        <v>4.713509730569617</v>
+        <v>3.869574785684582</v>
       </c>
       <c r="G28">
-        <v>7.119880181501291</v>
+        <v>6.49753587688329</v>
       </c>
       <c r="H28">
-        <v>9.611998417165765</v>
+        <v>8.701017672821747</v>
       </c>
       <c r="I28">
         <v>15.90806386966303</v>
